--- a/cmip6/models/cesm2/cmip6_ncar_cesm2_seaice.xlsx
+++ b/cmip6/models/cesm2/cmip6_ncar_cesm2_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>CESM2</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>
